--- a/Equipe206.xlsx
+++ b/Equipe206.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5B64DE1-E818-4B0B-AE14-3CA3D4EAE152}"/>
+  <xr:revisionPtr revIDLastSave="400" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E937D4-B9FD-49D6-A07A-2730B00BBEA2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="248">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -296,7 +296,7 @@
     <t>Qualité des classes</t>
   </si>
   <si>
-    <t>SS</t>
+    <t>AB</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -321,6 +321,10 @@
     <t>AerosolService, EllipseService, PolygonService setters inutiles</t>
   </si>
   <si>
+    <t xml:space="preserve">log2990-206/client/src/app/services/color/color.service.ts (getPrimaryColor et secondary)
+</t>
+  </si>
+  <si>
     <t>La classe minimise l'accessibilité des membres (public/private/protected)</t>
   </si>
   <si>
@@ -355,6 +359,11 @@
     <t>resizeCanvas() de ResizerCanvas: devra etre fragmenter a la place de commentaires; ngAfterViewInit() de ResizerComponent et SelectionComponent; validateTag() de TagInputComponent et validateTitle de TitleInputComponent. saveDrawing() de SaveDrawingComponent, setResizerPosition() deResizerHandlerService...etc</t>
   </si>
   <si>
+    <t xml:space="preserve">log2990-206/client/src/app/services/auto-save/auto-save.service.ts
+log2990-206/client/src/app/services/manager/popup-manager.service.ts
+</t>
+  </si>
+  <si>
     <t>Les fonctions minimisent les paramètres en entrée (pas plus de trois).
 Utilisation d'interfaces ou de classe pour des paramètres pouvant être regroupé logiquement.</t>
   </si>
@@ -362,6 +371,10 @@
     <t>drawTypeEllipse() de EllipseCommand, drawTypePolygone() de PolygonCommand, drawTypeRectangle() de RectangleCommand; computeSquareCoords() de ToolSelectionService</t>
   </si>
   <si>
+    <t xml:space="preserve">log2990-206/client/src/app/services/helper/math/segment-intersection.service.ts
+</t>
+  </si>
+  <si>
     <t>Les fonctions sont pures lorsque possible. Les effets secondaires sont minimisés</t>
   </si>
   <si>
@@ -422,6 +435,9 @@
     <t>L42-43 PipetteService</t>
   </si>
   <si>
+    <t>log2990-206/client/src/app/services/undo-redo/undo-redo.service.ts</t>
+  </si>
+  <si>
     <t>Minimiser la logique booléenne négative (ex: éviter "if (!notFound(...))")</t>
   </si>
   <si>
@@ -429,6 +445,9 @@
   </si>
   <si>
     <t>L53-57 ColorHistoryComponent</t>
+  </si>
+  <si>
+    <t>log2990-206/client/src/app/services/tools/stamp/stamp-command.ts</t>
   </si>
   <si>
     <t>Pas d'expressions booléennes complexes. 
@@ -441,6 +460,9 @@
     <t>L46 ExportDrawingComponent; setJunctionRadius() de line-service.ts(le if est trop long/peu lisible) de sprint 1</t>
   </si>
   <si>
+    <t>log2990-206/client/src/app/services/tools/ellipse/ellipse-command.ts</t>
+  </si>
+  <si>
     <t>Qualité Générale</t>
   </si>
   <si>
@@ -476,6 +498,9 @@
   <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)
 L'utilisation raisonnable de tslint:disable est tolérée dans les fichiers spec.ts.</t>
+  </si>
+  <si>
+    <t>Beaucoup de tslint disable qui sont pas justifié(créer des contantes au lieu de rEcrire a chaque fois le tsLint disable, ) text.command.ts(non justifié)</t>
   </si>
   <si>
     <t>Les structures conditionnelles réduisent l'imbrication lorsque possible (reduce nesting).</t>
@@ -524,6 +549,9 @@
     <t>Note assurance qualité</t>
   </si>
   <si>
+    <t>SS</t>
+  </si>
+  <si>
     <t>Fonctionnalité</t>
   </si>
   <si>
@@ -593,9 +621,6 @@
     <t>Ne build pas</t>
   </si>
   <si>
-    <t>AB</t>
-  </si>
-  <si>
     <t>Outil - Aérosol</t>
   </si>
   <si>
@@ -605,8 +630,8 @@
     <t>Outil- Sélection par rectangle et ellipse</t>
   </si>
   <si>
-    <t>1.  Le rectangle et l'ellipse de sélection résultent en une boîte englobante seulement à la fin du glisser-déposer.
-2. Bug: escape ne marche pas après déplacement</t>
+    <t xml:space="preserve">1.  Le rectangle et l'ellipse de sélection résultent en une boîte englobante seulement à la fin du glisser-déposer.
+</t>
   </si>
   <si>
     <t>Outil-Polygone</t>
@@ -652,7 +677,7 @@
   </si>
   <si>
     <t xml:space="preserve">1.  Il est possible d'ouvrir la fenêtre du carrousel avec le raccourci  CTRL + G.
-2.  Il est possible de faire défiler le carrousel en boucle avec les touches du clavier.
+2.  Bug: Il est possible de faire défiler le carrousel en boucle avec les touches du clavier. (parfois marche, parfois non)
 </t>
   </si>
   <si>
@@ -662,7 +687,7 @@
     <t>Annuler-Refaire</t>
   </si>
   <si>
-    <t>1. Si l'action Annuler ou Refaire est indisponible, il doit être impossible de choisir respectivement l'action Annuler ou Refaire via la barre latérale.</t>
+    <t>1. Bug: Si l'action Annuler ou Refaire est indisponible, il doit être impossible de choisir respectivement l'action Annuler ou Refaire via la barre latérale. (nouveau dessin)</t>
   </si>
   <si>
     <t>Anciennes fonctionnalités brisées</t>
@@ -671,21 +696,36 @@
     <t>Outil - Sélection par lasso</t>
   </si>
   <si>
+    <t>L'indicateur visuel pour empecher de mettre la ligne ne s'update pas directement avec les backspaces etc.</t>
+  </si>
+  <si>
     <t>Outil - Sceau de peinture</t>
   </si>
   <si>
     <t>Outil - Étampe</t>
   </si>
   <si>
+    <t>On doit bouger la souris pour avoir la prévisualisation la première fois</t>
+  </si>
+  <si>
     <t>Outil - Texte</t>
   </si>
   <si>
+    <t>Le texte en dehors de la surface de dessin se fontt voir(-0.1), On doit reclicker dans la boite pour continuer un texte apres avoir changer les atributs(-0.01),apres un alignement les lignes qui ne sont pas modifiée ne devrais pas bouger quand on ecrit dans les autres ligne(-0.1)</t>
+  </si>
+  <si>
     <t>Manipulations de sélections et presse-papier</t>
   </si>
   <si>
+    <t>Excellent</t>
+  </si>
+  <si>
     <t>Redimensionnement d'une sélection</t>
   </si>
   <si>
+    <t>Apres le shift le contour de selection disparait temporairement. Si le redimensionnement quitte la surface de dessin,on continue de voire la prévisualisation au complet.</t>
+  </si>
+  <si>
     <t>Téléversement sur Imgur</t>
   </si>
   <si>
@@ -693,6 +733,9 @@
   </si>
   <si>
     <t>Grille</t>
+  </si>
+  <si>
+    <t>detail mineur, il faudrait que la taille de la grille s'update sans devoir relacher le curseur</t>
   </si>
   <si>
     <t>Magnétisme</t>
@@ -2315,7 +2358,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2442,7 +2485,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2513,13 +2556,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2546,8 +2589,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="10" borderId="51" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="11" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2584,7 +2627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2594,9 +2637,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
@@ -2639,7 +2679,7 @@
     <xf numFmtId="10" fontId="5" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2648,7 +2688,7 @@
     <xf numFmtId="10" fontId="5" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2657,20 +2697,19 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2691,10 +2730,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2709,7 +2745,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2724,16 +2760,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="76" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="64" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="59" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="77" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2754,43 +2790,34 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="75" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2799,7 +2826,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="85" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2808,9 +2835,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2835,7 +2859,7 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="86" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="16" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="88" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="89" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2853,13 +2877,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="90" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2868,7 +2889,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2892,19 +2913,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2925,14 +2946,14 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="74" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2950,7 +2971,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1"/>
@@ -2963,7 +2984,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="96" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2972,10 +2993,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="94" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2984,7 +3005,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="75" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3008,24 +3029,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3035,10 +3056,10 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3053,7 +3074,7 @@
     <xf numFmtId="9" fontId="0" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3086,7 +3107,7 @@
     <xf numFmtId="0" fontId="10" fillId="17" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3953,18 +3974,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="286"/>
-      <c r="E2" s="287" t="s">
+      <c r="D2" s="278"/>
+      <c r="E2" s="279" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="287"/>
-      <c r="G2" s="288" t="s">
+      <c r="F2" s="279"/>
+      <c r="G2" s="280" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="288"/>
+      <c r="H2" s="280"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -4244,7 +4265,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="289" t="s">
+      <c r="G2" s="281" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4257,7 +4278,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="289"/>
+      <c r="G3" s="281"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="58" t="s">
@@ -4517,7 +4538,6 @@
         <f>SUMPRODUCT(F$4:F$21,$G$4:$G$21)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="162"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="85" t="s">
@@ -4543,7 +4563,6 @@
         <f>SUMPRODUCT(--ISNUMBER(F$4:F$21),$G$4:$G$21)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="162"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="91" t="s">
@@ -4574,15 +4593,10 @@
       <c r="A27" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="H27" s="290" t="s">
+      <c r="H27" s="282" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="290"/>
+      <c r="I27" s="282"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="52" t="s">
@@ -4785,24 +4799,16 @@
         <f>IF(F$28="Oui",$H$37,$I$37)</f>
         <v>10</v>
       </c>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="137"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="162"/>
-      <c r="B40" s="162"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
-      <c r="F40" s="162"/>
+      <c r="A39" s="136"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="91" t="s">
@@ -4833,7 +4839,7 @@
       <c r="A44" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="138">
+      <c r="B44" s="137">
         <f>(B$25+B$41)/2</f>
         <v>0.5</v>
       </c>
@@ -4858,23 +4864,23 @@
       <c r="A45" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="139">
+      <c r="B45" s="138">
         <f>COUNTA(B$4:B$21)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="140">
+      <c r="C45" s="139">
         <f>COUNTA(C$4:C$21)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="141">
+      <c r="D45" s="140">
         <f>COUNTA(D$4:D$21)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="142">
+      <c r="E45" s="141">
         <f>COUNTA(E$4:E$21)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="143">
+      <c r="F45" s="142">
         <f>COUNTA(F$4:F$21)</f>
         <v>0</v>
       </c>
@@ -4935,7 +4941,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="289" t="s">
+      <c r="G2" s="281" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4948,7 +4954,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="289"/>
+      <c r="G3" s="281"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
@@ -5260,7 +5266,6 @@
         <f>SUMPRODUCT(F$4:F$25,$G$4:$G$25)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="162"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="85" t="s">
@@ -5286,7 +5291,6 @@
         <f>SUMPRODUCT(--ISNUMBER(F$4:F$25),$G$4:$G$25)</f>
         <v>0</v>
       </c>
-      <c r="G27" s="162"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="91" t="s">
@@ -5317,15 +5321,10 @@
       <c r="A31" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="162"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="162"/>
-      <c r="E31" s="162"/>
-      <c r="F31" s="162"/>
-      <c r="H31" s="290" t="s">
+      <c r="H31" s="282" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="290"/>
+      <c r="I31" s="282"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
@@ -5528,24 +5527,16 @@
         <f>IF(F$32="Oui",$H$41,$I$41)</f>
         <v>10</v>
       </c>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="137"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="162"/>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="91" t="s">
@@ -5576,7 +5567,7 @@
       <c r="A48" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="138">
+      <c r="B48" s="137">
         <f>(B$29+B$45)/2</f>
         <v>0.5</v>
       </c>
@@ -5601,23 +5592,23 @@
       <c r="A49" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="139">
+      <c r="B49" s="138">
         <f>COUNTA(B$4:B$25)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="140">
+      <c r="C49" s="139">
         <f>COUNTA(C$4:C$25)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="141">
+      <c r="D49" s="140">
         <f>COUNTA(D$4:D$25)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="142">
+      <c r="E49" s="141">
         <f>COUNTA(E$4:E$25)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="143">
+      <c r="F49" s="142">
         <f>COUNTA(F$4:F$25)</f>
         <v>0</v>
       </c>
@@ -5648,7 +5639,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5663,17 +5654,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145" t="s">
+      <c r="A3" s="143"/>
+      <c r="B3" s="144" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -5684,90 +5675,92 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="148">
+      <c r="A4" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="147">
         <f>(Fonctionnalités!E18)</f>
         <v>0.83090727573080525</v>
       </c>
-      <c r="C4" s="149">
+      <c r="C4" s="148">
         <f>'Assurance Qualité'!B60</f>
         <v>0.77</v>
       </c>
-      <c r="D4" s="149">
+      <c r="D4" s="148">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
         <v>0.80654436543848318</v>
       </c>
-      <c r="F4" s="150">
+      <c r="F4" s="149">
         <v>15</v>
       </c>
-      <c r="G4" s="151">
+      <c r="G4" s="150">
         <f>D4*F4</f>
         <v>12.098165481577247</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="152" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="153">
+      <c r="A5" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="152">
         <f>(Fonctionnalités!E35)</f>
-        <v>0.78</v>
-      </c>
-      <c r="C5" s="154">
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="C5" s="153">
         <f>'Assurance Qualité'!D60</f>
         <v>0.66749999999999998</v>
       </c>
-      <c r="D5" s="154">
+      <c r="D5" s="153">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="F5" s="150">
+        <v>0.75660000000000005</v>
+      </c>
+      <c r="F5" s="149">
         <v>25</v>
       </c>
-      <c r="G5" s="151">
+      <c r="G5" s="150">
         <f>D5*F5</f>
-        <v>18.375</v>
+        <v>18.915000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="156">
+      <c r="B6" s="155">
         <f>(Fonctionnalités!E52)</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="157">
+        <v>0.94199999999999984</v>
+      </c>
+      <c r="C6" s="156">
         <f>'Assurance Qualité'!F60</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="157">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="D6" s="156">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="150">
+        <v>0.92419999999999991</v>
+      </c>
+      <c r="F6" s="149">
         <v>20</v>
       </c>
-      <c r="G6" s="151">
+      <c r="G6" s="150">
         <f>D6*F6</f>
-        <v>0</v>
+        <v>18.483999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="160"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="159">
+        <v>0.96</v>
+      </c>
       <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="151">
+      <c r="G7" s="150">
         <f>D7*F7</f>
-        <v>0</v>
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>
@@ -5780,8 +5773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5796,1469 +5789,1560 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="288" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="283" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="297" t="s">
+      <c r="A5" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="298"/>
-      <c r="D5" s="299" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="299"/>
-      <c r="F5" s="300" t="s">
+      <c r="B5" s="290" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="290"/>
+      <c r="D5" s="291" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="291"/>
+      <c r="F5" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="300"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="295" t="s">
+      <c r="G5" s="292"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="287" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
+      <c r="K5" s="287"/>
+      <c r="L5" s="287"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="297"/>
-      <c r="B6" s="167" t="s">
+      <c r="A6" s="289"/>
+      <c r="B6" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="168" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="169" t="s">
+      <c r="C6" s="166" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="170" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="171" t="s">
+      <c r="E6" s="168" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="172" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="173" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="173" t="s">
+      <c r="G6" s="170" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="143" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="173"/>
+      <c r="M6" s="143"/>
     </row>
     <row r="7" spans="1:13" ht="72.75" customHeight="1">
-      <c r="A7" s="291" t="s">
+      <c r="A7" s="283" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="163" t="s">
+      <c r="B7" s="283"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
+      <c r="H7" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="163"/>
+      <c r="I7" s="161"/>
       <c r="K7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="175">
-        <v>1</v>
-      </c>
-      <c r="C8" s="176">
-        <v>3</v>
-      </c>
-      <c r="D8" s="177">
-        <v>1</v>
-      </c>
-      <c r="E8" s="176">
-        <v>3</v>
-      </c>
-      <c r="F8" s="178"/>
-      <c r="G8" s="176">
-        <v>3</v>
-      </c>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
+      <c r="B8" s="172">
+        <v>1</v>
+      </c>
+      <c r="C8" s="173">
+        <v>3</v>
+      </c>
+      <c r="D8" s="174">
+        <v>1</v>
+      </c>
+      <c r="E8" s="173">
+        <v>3</v>
+      </c>
+      <c r="F8" s="175">
+        <v>1</v>
+      </c>
+      <c r="G8" s="173">
+        <v>3</v>
+      </c>
+      <c r="H8" s="176"/>
+      <c r="I8" s="176"/>
       <c r="K8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="171" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="180">
-        <v>1</v>
-      </c>
-      <c r="C9" s="181">
+      <c r="B9" s="177">
+        <v>1</v>
+      </c>
+      <c r="C9" s="178">
         <v>2</v>
       </c>
-      <c r="D9" s="182">
-        <v>1</v>
-      </c>
-      <c r="E9" s="181">
+      <c r="D9" s="179">
+        <v>1</v>
+      </c>
+      <c r="E9" s="178">
         <v>2</v>
       </c>
-      <c r="F9" s="183"/>
-      <c r="G9" s="181">
+      <c r="F9" s="180">
+        <v>1</v>
+      </c>
+      <c r="G9" s="178">
         <v>2</v>
       </c>
-      <c r="H9" s="179"/>
-      <c r="I9" s="179"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
       <c r="K9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60">
-      <c r="A10" s="184" t="s">
+    <row r="10" spans="1:13" ht="165">
+      <c r="A10" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="180">
+      <c r="B10" s="177">
         <v>0.25</v>
       </c>
-      <c r="C10" s="181">
-        <v>3</v>
-      </c>
-      <c r="D10" s="182">
-        <v>0</v>
-      </c>
-      <c r="E10" s="181">
-        <v>3</v>
-      </c>
-      <c r="F10" s="183"/>
-      <c r="G10" s="181">
-        <v>3</v>
-      </c>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
+      <c r="C10" s="178">
+        <v>3</v>
+      </c>
+      <c r="D10" s="179">
+        <v>0</v>
+      </c>
+      <c r="E10" s="178">
+        <v>3</v>
+      </c>
+      <c r="F10" s="180">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="178">
+        <v>3</v>
+      </c>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
       <c r="J10" t="s">
         <v>89</v>
       </c>
       <c r="K10" t="s">
         <v>90</v>
       </c>
+      <c r="L10" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="185" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="180">
-        <v>0</v>
-      </c>
-      <c r="C11" s="181">
+      <c r="A11" s="182" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="177">
+        <v>0</v>
+      </c>
+      <c r="C11" s="178">
         <v>2</v>
       </c>
-      <c r="D11" s="182">
-        <v>0</v>
-      </c>
-      <c r="E11" s="181">
+      <c r="D11" s="179">
+        <v>0</v>
+      </c>
+      <c r="E11" s="178">
         <v>2</v>
       </c>
-      <c r="F11" s="183"/>
-      <c r="G11" s="181">
+      <c r="F11" s="180">
+        <v>1</v>
+      </c>
+      <c r="G11" s="178">
         <v>2</v>
       </c>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30">
-      <c r="A12" s="186" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="180">
-        <v>0</v>
-      </c>
-      <c r="C12" s="181">
+      <c r="A12" s="183" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="177">
+        <v>0</v>
+      </c>
+      <c r="C12" s="178">
         <v>4</v>
       </c>
-      <c r="D12" s="182">
-        <v>0</v>
-      </c>
-      <c r="E12" s="181">
+      <c r="D12" s="179">
+        <v>0</v>
+      </c>
+      <c r="E12" s="178">
         <v>4</v>
       </c>
-      <c r="F12" s="183"/>
-      <c r="G12" s="181">
+      <c r="F12" s="180">
+        <v>1</v>
+      </c>
+      <c r="G12" s="178">
         <v>4</v>
       </c>
-      <c r="H12" s="179"/>
-      <c r="I12" s="179"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="188">
+      <c r="A13" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="185">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
         <v>5.75</v>
       </c>
-      <c r="C13" s="189">
+      <c r="C13" s="186">
         <f>SUM(C8:C12)</f>
         <v>14</v>
       </c>
-      <c r="D13" s="190">
+      <c r="D13" s="187">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
         <v>5</v>
       </c>
-      <c r="E13" s="191">
+      <c r="E13" s="188">
         <f>SUM(E8:E12)</f>
         <v>14</v>
       </c>
-      <c r="F13" s="192">
+      <c r="F13" s="189">
         <f>SUMPRODUCT(F8:F12,G8:G12)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="193">
+        <v>12.5</v>
+      </c>
+      <c r="G13" s="190">
         <f>SUM(G8:G12)</f>
         <v>14</v>
       </c>
-      <c r="H13" s="179"/>
-      <c r="I13" s="179"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
       <c r="K13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A14" s="291" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="291"/>
-      <c r="C14" s="291"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="291"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="163" t="s">
+      <c r="A14" s="283" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="283"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="283"/>
+      <c r="E14" s="283"/>
+      <c r="F14" s="283"/>
+      <c r="G14" s="283"/>
+      <c r="H14" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="163"/>
+      <c r="I14" s="161"/>
       <c r="K14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="45">
-      <c r="A15" s="184" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="194">
-        <v>1</v>
-      </c>
-      <c r="C15" s="195">
+      <c r="A15" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="172">
+        <v>1</v>
+      </c>
+      <c r="C15" s="191">
         <v>2</v>
       </c>
-      <c r="D15" s="196">
-        <v>1</v>
-      </c>
-      <c r="E15" s="195">
+      <c r="D15" s="192">
+        <v>1</v>
+      </c>
+      <c r="E15" s="191">
         <v>2</v>
       </c>
-      <c r="F15" s="197"/>
-      <c r="G15" s="195">
+      <c r="F15" s="175">
+        <v>1</v>
+      </c>
+      <c r="G15" s="191">
         <v>2</v>
       </c>
-      <c r="H15" s="198"/>
-      <c r="I15" s="179"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
       <c r="K15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30">
-      <c r="A16" s="184" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="199">
-        <v>1</v>
-      </c>
-      <c r="C16" s="200">
-        <v>3</v>
-      </c>
-      <c r="D16" s="201">
-        <v>0</v>
-      </c>
-      <c r="E16" s="200">
-        <v>3</v>
-      </c>
-      <c r="F16" s="202"/>
-      <c r="G16" s="200">
-        <v>3</v>
-      </c>
-      <c r="H16" s="198"/>
-      <c r="I16" s="179"/>
+    <row r="16" spans="1:13" ht="210">
+      <c r="A16" s="181" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="193">
+        <v>1</v>
+      </c>
+      <c r="C16" s="194">
+        <v>3</v>
+      </c>
+      <c r="D16" s="195">
+        <v>0</v>
+      </c>
+      <c r="E16" s="194">
+        <v>3</v>
+      </c>
+      <c r="F16" s="196">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="194">
+        <v>3</v>
+      </c>
+      <c r="H16" s="176"/>
+      <c r="I16" s="176"/>
       <c r="K16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="75">
-      <c r="A17" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="180">
-        <v>1</v>
-      </c>
-      <c r="C17" s="200">
-        <v>3</v>
-      </c>
-      <c r="D17" s="204">
-        <v>0</v>
-      </c>
-      <c r="E17" s="200">
-        <v>3</v>
-      </c>
-      <c r="F17" s="205"/>
-      <c r="G17" s="200">
-        <v>3</v>
-      </c>
-      <c r="H17" s="198"/>
-      <c r="I17" s="179"/>
-      <c r="K17" s="283" t="s">
+      <c r="L16" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30">
-      <c r="A18" s="203" t="s">
+    <row r="17" spans="1:12" ht="150">
+      <c r="A17" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="180">
-        <v>1</v>
-      </c>
-      <c r="C18" s="200">
-        <v>3</v>
-      </c>
-      <c r="D18" s="204">
-        <v>1</v>
-      </c>
-      <c r="E18" s="200">
-        <v>3</v>
-      </c>
-      <c r="F18" s="205"/>
-      <c r="G18" s="200">
-        <v>3</v>
-      </c>
-      <c r="H18" s="198"/>
-      <c r="I18" s="179"/>
+      <c r="B17" s="177">
+        <v>1</v>
+      </c>
+      <c r="C17" s="194">
+        <v>3</v>
+      </c>
+      <c r="D17" s="198">
+        <v>0</v>
+      </c>
+      <c r="E17" s="194">
+        <v>3</v>
+      </c>
+      <c r="F17" s="199">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="194">
+        <v>3</v>
+      </c>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
+      <c r="K17" s="274" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30">
+      <c r="A18" s="197" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="177">
+        <v>1</v>
+      </c>
+      <c r="C18" s="194">
+        <v>3</v>
+      </c>
+      <c r="D18" s="198">
+        <v>1</v>
+      </c>
+      <c r="E18" s="194">
+        <v>3</v>
+      </c>
+      <c r="F18" s="199">
+        <v>1</v>
+      </c>
+      <c r="G18" s="194">
+        <v>3</v>
+      </c>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
       <c r="K18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="206" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="207">
+    <row r="19" spans="1:12">
+      <c r="A19" s="200" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="201">
         <v>0.5</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="194">
         <v>2</v>
       </c>
-      <c r="D19" s="208">
-        <v>0</v>
-      </c>
-      <c r="E19" s="200">
+      <c r="D19" s="202">
+        <v>0</v>
+      </c>
+      <c r="E19" s="194">
         <v>2</v>
       </c>
-      <c r="F19" s="205"/>
-      <c r="G19" s="200">
+      <c r="F19" s="199">
+        <v>1</v>
+      </c>
+      <c r="G19" s="194">
         <v>2</v>
       </c>
-      <c r="H19" s="198"/>
-      <c r="I19" s="179"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="209" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="188">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="203" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="185">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
         <v>12</v>
       </c>
-      <c r="C20" s="189">
+      <c r="C20" s="186">
         <f>SUM(C15:C19)</f>
         <v>13</v>
       </c>
-      <c r="D20" s="210">
+      <c r="D20" s="204">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
         <v>5</v>
       </c>
-      <c r="E20" s="211">
+      <c r="E20" s="205">
         <f>SUM(E15:E19)</f>
         <v>13</v>
       </c>
-      <c r="F20" s="212">
+      <c r="F20" s="189">
         <f>SUMPRODUCT(F15:F19,G15:G19)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="193">
+        <v>10</v>
+      </c>
+      <c r="G20" s="190">
         <f>SUM(G15:G19)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="198"/>
-      <c r="I20" s="179"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="176"/>
       <c r="K20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="291" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="291"/>
-      <c r="C21" s="291"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="163" t="s">
+    <row r="21" spans="1:12" ht="18.399999999999999" customHeight="1">
+      <c r="A21" s="283" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="283"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
+      <c r="H21" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="163"/>
+      <c r="I21" s="161"/>
       <c r="K21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="75">
-      <c r="A22" s="185" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="180">
-        <v>1</v>
-      </c>
-      <c r="C22" s="200">
+    <row r="22" spans="1:12" ht="75">
+      <c r="A22" s="182" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="177">
+        <v>1</v>
+      </c>
+      <c r="C22" s="194">
         <v>2</v>
       </c>
-      <c r="D22" s="182">
-        <v>1</v>
-      </c>
-      <c r="E22" s="200">
+      <c r="D22" s="179">
+        <v>1</v>
+      </c>
+      <c r="E22" s="194">
         <v>2</v>
       </c>
-      <c r="F22" s="183"/>
-      <c r="G22" s="200">
+      <c r="F22" s="180">
+        <v>1</v>
+      </c>
+      <c r="G22" s="194">
         <v>2</v>
       </c>
-      <c r="H22" s="198"/>
-      <c r="I22" s="179"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
       <c r="K22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="186" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="180">
-        <v>1</v>
-      </c>
-      <c r="C23" s="181">
-        <v>1</v>
-      </c>
-      <c r="D23" s="182">
-        <v>1</v>
-      </c>
-      <c r="E23" s="181">
-        <v>1</v>
-      </c>
-      <c r="F23" s="183"/>
-      <c r="G23" s="181">
-        <v>1</v>
-      </c>
-      <c r="H23" s="198"/>
-      <c r="I23" s="179"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="183" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="177">
+        <v>1</v>
+      </c>
+      <c r="C23" s="178">
+        <v>1</v>
+      </c>
+      <c r="D23" s="179">
+        <v>1</v>
+      </c>
+      <c r="E23" s="178">
+        <v>1</v>
+      </c>
+      <c r="F23" s="180">
+        <v>1</v>
+      </c>
+      <c r="G23" s="178">
+        <v>1</v>
+      </c>
+      <c r="H23" s="176"/>
+      <c r="I23" s="176"/>
       <c r="K23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30">
-      <c r="A24" s="186" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="180">
-        <v>1</v>
-      </c>
-      <c r="C24" s="181">
-        <v>1</v>
-      </c>
-      <c r="D24" s="182">
-        <v>1</v>
-      </c>
-      <c r="E24" s="181">
-        <v>1</v>
-      </c>
-      <c r="F24" s="183"/>
-      <c r="G24" s="181">
-        <v>1</v>
-      </c>
-      <c r="H24" s="198"/>
-      <c r="I24" s="179"/>
+    <row r="24" spans="1:12" ht="30">
+      <c r="A24" s="183" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="177">
+        <v>1</v>
+      </c>
+      <c r="C24" s="178">
+        <v>1</v>
+      </c>
+      <c r="D24" s="179">
+        <v>1</v>
+      </c>
+      <c r="E24" s="178">
+        <v>1</v>
+      </c>
+      <c r="F24" s="180">
+        <v>1</v>
+      </c>
+      <c r="G24" s="178">
+        <v>1</v>
+      </c>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
       <c r="K24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="188">
+    <row r="25" spans="1:12">
+      <c r="A25" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="185">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
         <v>4</v>
       </c>
-      <c r="C25" s="189">
+      <c r="C25" s="186">
         <f>SUM(C22:C24)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="190">
+      <c r="D25" s="187">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
         <v>4</v>
       </c>
-      <c r="E25" s="191">
+      <c r="E25" s="188">
         <f>SUM(E22:E24)</f>
         <v>4</v>
       </c>
-      <c r="F25" s="192">
+      <c r="F25" s="189">
         <f>SUMPRODUCT(F22:F24,G22:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="193">
+        <v>4</v>
+      </c>
+      <c r="G25" s="190">
         <f>SUM(G22:G24)</f>
         <v>4</v>
       </c>
-      <c r="H25" s="198"/>
-      <c r="I25" s="179"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
       <c r="K25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="291" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="291"/>
-      <c r="C26" s="291"/>
-      <c r="D26" s="291"/>
-      <c r="E26" s="291"/>
-      <c r="F26" s="291"/>
-      <c r="G26" s="291"/>
-      <c r="H26" s="163" t="s">
+    <row r="26" spans="1:12" ht="18.399999999999999" customHeight="1">
+      <c r="A26" s="283" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="283"/>
+      <c r="C26" s="283"/>
+      <c r="D26" s="283"/>
+      <c r="E26" s="283"/>
+      <c r="F26" s="283"/>
+      <c r="G26" s="283"/>
+      <c r="H26" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="163"/>
+      <c r="I26" s="161"/>
       <c r="K26" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="60">
-      <c r="A27" s="206" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="213">
-        <v>0</v>
-      </c>
-      <c r="C27" s="214">
+    <row r="27" spans="1:12" ht="60">
+      <c r="A27" s="200" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="206">
+        <v>0</v>
+      </c>
+      <c r="C27" s="207">
         <v>2</v>
       </c>
-      <c r="D27" s="204">
+      <c r="D27" s="198">
         <v>0.5</v>
       </c>
-      <c r="E27" s="214">
+      <c r="E27" s="207">
         <v>2</v>
       </c>
-      <c r="F27" s="215"/>
-      <c r="G27" s="214">
+      <c r="F27" s="208">
+        <v>1</v>
+      </c>
+      <c r="G27" s="207">
         <v>2</v>
       </c>
-      <c r="H27" s="198"/>
-      <c r="I27" s="179"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45">
-      <c r="A28" s="206" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="180">
-        <v>1</v>
-      </c>
-      <c r="C28" s="181">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="45">
+      <c r="A28" s="200" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="177">
+        <v>1</v>
+      </c>
+      <c r="C28" s="178">
         <v>2</v>
       </c>
-      <c r="D28" s="204">
-        <v>1</v>
-      </c>
-      <c r="E28" s="181">
+      <c r="D28" s="198">
+        <v>1</v>
+      </c>
+      <c r="E28" s="178">
         <v>2</v>
       </c>
-      <c r="F28" s="215"/>
-      <c r="G28" s="181">
+      <c r="F28" s="208">
+        <v>1</v>
+      </c>
+      <c r="G28" s="178">
         <v>2</v>
       </c>
-      <c r="H28" s="198"/>
-      <c r="I28" s="179"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
       <c r="K28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30">
-      <c r="A29" s="206" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="180">
-        <v>1</v>
-      </c>
-      <c r="C29" s="181">
+    <row r="29" spans="1:12" ht="30">
+      <c r="A29" s="200" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="177">
+        <v>1</v>
+      </c>
+      <c r="C29" s="178">
         <v>2</v>
       </c>
-      <c r="D29" s="204">
-        <v>1</v>
-      </c>
-      <c r="E29" s="181">
+      <c r="D29" s="198">
+        <v>1</v>
+      </c>
+      <c r="E29" s="178">
         <v>2</v>
       </c>
-      <c r="F29" s="215"/>
-      <c r="G29" s="181">
+      <c r="F29" s="208">
+        <v>1</v>
+      </c>
+      <c r="G29" s="178">
         <v>2</v>
       </c>
-      <c r="H29" s="198"/>
-      <c r="I29" s="179"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
       <c r="K29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="75">
-      <c r="A30" s="206" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" s="180">
-        <v>0</v>
-      </c>
-      <c r="C30" s="181">
-        <v>3</v>
-      </c>
-      <c r="D30" s="204">
-        <v>0</v>
-      </c>
-      <c r="E30" s="181">
-        <v>3</v>
-      </c>
-      <c r="F30" s="215"/>
-      <c r="G30" s="181">
-        <v>3</v>
-      </c>
-      <c r="H30" s="198"/>
-      <c r="I30" s="179"/>
+    <row r="30" spans="1:12" ht="75">
+      <c r="A30" s="200" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="177">
+        <v>0</v>
+      </c>
+      <c r="C30" s="178">
+        <v>3</v>
+      </c>
+      <c r="D30" s="198">
+        <v>0</v>
+      </c>
+      <c r="E30" s="178">
+        <v>3</v>
+      </c>
+      <c r="F30" s="208">
+        <v>1</v>
+      </c>
+      <c r="G30" s="178">
+        <v>3</v>
+      </c>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="209" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="188">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="203" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="185">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
         <v>4</v>
       </c>
-      <c r="C31" s="189">
+      <c r="C31" s="186">
         <f>SUM(C27:C30)</f>
         <v>9</v>
       </c>
-      <c r="D31" s="210">
+      <c r="D31" s="204">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
         <v>5</v>
       </c>
-      <c r="E31" s="191">
+      <c r="E31" s="188">
         <f>SUM(E27:E30)</f>
         <v>9</v>
       </c>
-      <c r="F31" s="192">
+      <c r="F31" s="189">
         <f>SUMPRODUCT(F27:F30,G27:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="193">
+        <v>9</v>
+      </c>
+      <c r="G31" s="190">
         <f>SUM(G27:G30)</f>
         <v>9</v>
       </c>
-      <c r="H31" s="198"/>
-      <c r="I31" s="179"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
       <c r="K31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A32" s="291" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="291"/>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
-      <c r="E32" s="291"/>
-      <c r="F32" s="291"/>
-      <c r="G32" s="291"/>
-      <c r="H32" s="163" t="s">
+    <row r="32" spans="1:12" ht="18.399999999999999" customHeight="1">
+      <c r="A32" s="283" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="283"/>
+      <c r="C32" s="283"/>
+      <c r="D32" s="283"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="283"/>
+      <c r="G32" s="283"/>
+      <c r="H32" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="163"/>
+      <c r="I32" s="161"/>
       <c r="K32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="184" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="213">
-        <v>1</v>
-      </c>
-      <c r="C33" s="214">
-        <v>1</v>
-      </c>
-      <c r="D33" s="216">
+    <row r="33" spans="1:12">
+      <c r="A33" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="206">
+        <v>1</v>
+      </c>
+      <c r="C33" s="207">
+        <v>1</v>
+      </c>
+      <c r="D33" s="209">
         <v>0.75</v>
       </c>
-      <c r="E33" s="214">
-        <v>1</v>
-      </c>
-      <c r="F33" s="217"/>
-      <c r="G33" s="214">
-        <v>1</v>
-      </c>
-      <c r="H33" s="198"/>
-      <c r="I33" s="179"/>
+      <c r="E33" s="207">
+        <v>1</v>
+      </c>
+      <c r="F33" s="210">
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="207">
+        <v>1</v>
+      </c>
+      <c r="H33" s="176"/>
+      <c r="I33" s="176"/>
       <c r="K33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="184" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="180">
-        <v>1</v>
-      </c>
-      <c r="C34" s="200">
-        <v>1</v>
-      </c>
-      <c r="D34" s="204">
-        <v>1</v>
-      </c>
-      <c r="E34" s="200">
-        <v>1</v>
-      </c>
-      <c r="F34" s="218"/>
-      <c r="G34" s="200">
-        <v>1</v>
-      </c>
-      <c r="H34" s="198"/>
-      <c r="I34" s="179"/>
+        <v>126</v>
+      </c>
+      <c r="L33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="177">
+        <v>1</v>
+      </c>
+      <c r="C34" s="194">
+        <v>1</v>
+      </c>
+      <c r="D34" s="198">
+        <v>1</v>
+      </c>
+      <c r="E34" s="194">
+        <v>1</v>
+      </c>
+      <c r="F34" s="211">
+        <v>1</v>
+      </c>
+      <c r="G34" s="194">
+        <v>1</v>
+      </c>
+      <c r="H34" s="176"/>
+      <c r="I34" s="176"/>
       <c r="K34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="203" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" s="180">
-        <v>1</v>
-      </c>
-      <c r="C35" s="200">
-        <v>3</v>
-      </c>
-      <c r="D35" s="204">
+    <row r="35" spans="1:12">
+      <c r="A35" s="197" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="177">
+        <v>1</v>
+      </c>
+      <c r="C35" s="194">
+        <v>3</v>
+      </c>
+      <c r="D35" s="198">
         <v>0.75</v>
       </c>
-      <c r="E35" s="200">
-        <v>3</v>
-      </c>
-      <c r="F35" s="215"/>
-      <c r="G35" s="200">
-        <v>3</v>
-      </c>
-      <c r="H35" s="198"/>
-      <c r="I35" s="179"/>
+      <c r="E35" s="194">
+        <v>3</v>
+      </c>
+      <c r="F35" s="208">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="194">
+        <v>3</v>
+      </c>
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
       <c r="K35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30">
-      <c r="A36" s="206" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="180">
+        <v>130</v>
+      </c>
+      <c r="L35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30">
+      <c r="A36" s="200" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="177">
         <v>0.75</v>
       </c>
-      <c r="C36" s="181">
-        <v>3</v>
-      </c>
-      <c r="D36" s="204">
+      <c r="C36" s="178">
+        <v>3</v>
+      </c>
+      <c r="D36" s="198">
         <v>0.25</v>
       </c>
-      <c r="E36" s="181">
-        <v>3</v>
-      </c>
-      <c r="F36" s="215"/>
-      <c r="G36" s="181">
-        <v>3</v>
-      </c>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
+      <c r="E36" s="178">
+        <v>3</v>
+      </c>
+      <c r="F36" s="208">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="178">
+        <v>3</v>
+      </c>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="209" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="219">
+        <v>134</v>
+      </c>
+      <c r="L36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="203" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="212">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
         <v>7.25</v>
       </c>
-      <c r="C37" s="189">
+      <c r="C37" s="186">
         <f>SUM(C33:C36)</f>
         <v>8</v>
       </c>
-      <c r="D37" s="220">
+      <c r="D37" s="213">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
         <v>4.75</v>
       </c>
-      <c r="E37" s="191">
+      <c r="E37" s="188">
         <f>SUM(E33:E36)</f>
         <v>8</v>
       </c>
-      <c r="F37" s="192">
+      <c r="F37" s="189">
         <f>SUMPRODUCT(F33:F36,G33:G36)</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="193">
+        <v>6.25</v>
+      </c>
+      <c r="G37" s="190">
         <f>SUM(G33:G36)</f>
         <v>8</v>
       </c>
-      <c r="H37" s="198"/>
-      <c r="I37" s="179"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
       <c r="K37" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.399999999999999" customHeight="1">
-      <c r="A38" s="291" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="291"/>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="291"/>
-      <c r="F38" s="291"/>
-      <c r="G38" s="291"/>
-      <c r="H38" s="282" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="163"/>
-    </row>
-    <row r="39" spans="1:11" ht="45">
-      <c r="A39" s="203" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="213">
-        <v>1</v>
-      </c>
-      <c r="C39" s="195">
-        <v>1</v>
-      </c>
-      <c r="D39" s="204">
-        <v>1</v>
-      </c>
-      <c r="E39" s="195">
-        <v>1</v>
-      </c>
-      <c r="F39" s="215"/>
-      <c r="G39" s="195">
-        <v>1</v>
-      </c>
-      <c r="H39" s="179"/>
-      <c r="I39" s="179"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="203" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="180">
-        <v>1</v>
-      </c>
-      <c r="C40" s="200">
+    <row r="38" spans="1:12" ht="18.399999999999999" customHeight="1">
+      <c r="A38" s="283" t="s">
+        <v>136</v>
+      </c>
+      <c r="B38" s="283"/>
+      <c r="C38" s="283"/>
+      <c r="D38" s="283"/>
+      <c r="E38" s="283"/>
+      <c r="F38" s="283"/>
+      <c r="G38" s="283"/>
+      <c r="H38" s="161" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="161"/>
+    </row>
+    <row r="39" spans="1:12" ht="45">
+      <c r="A39" s="197" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="206">
+        <v>1</v>
+      </c>
+      <c r="C39" s="191">
+        <v>1</v>
+      </c>
+      <c r="D39" s="198">
+        <v>1</v>
+      </c>
+      <c r="E39" s="191">
+        <v>1</v>
+      </c>
+      <c r="F39" s="208">
+        <v>1</v>
+      </c>
+      <c r="G39" s="191">
+        <v>1</v>
+      </c>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="197" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="177">
+        <v>1</v>
+      </c>
+      <c r="C40" s="194">
         <v>4</v>
       </c>
-      <c r="D40" s="204">
-        <v>1</v>
-      </c>
-      <c r="E40" s="200">
+      <c r="D40" s="198">
+        <v>1</v>
+      </c>
+      <c r="E40" s="194">
         <v>4</v>
       </c>
-      <c r="F40" s="215"/>
-      <c r="G40" s="200">
+      <c r="F40" s="208">
+        <v>1</v>
+      </c>
+      <c r="G40" s="194">
         <v>4</v>
       </c>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="203" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="180">
-        <v>1</v>
-      </c>
-      <c r="C41" s="200">
-        <v>3</v>
-      </c>
-      <c r="D41" s="204">
-        <v>1</v>
-      </c>
-      <c r="E41" s="200">
-        <v>3</v>
-      </c>
-      <c r="F41" s="215"/>
-      <c r="G41" s="200">
-        <v>3</v>
-      </c>
-      <c r="H41" s="179"/>
-      <c r="I41" s="179"/>
-    </row>
-    <row r="42" spans="1:11" ht="60">
-      <c r="A42" s="203" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="180">
-        <v>1</v>
-      </c>
-      <c r="C42" s="200">
+      <c r="H40" s="176"/>
+      <c r="I40" s="176"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="197" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="177">
+        <v>1</v>
+      </c>
+      <c r="C41" s="194">
+        <v>3</v>
+      </c>
+      <c r="D41" s="198">
+        <v>1</v>
+      </c>
+      <c r="E41" s="194">
+        <v>3</v>
+      </c>
+      <c r="F41" s="208">
+        <v>1</v>
+      </c>
+      <c r="G41" s="194">
+        <v>3</v>
+      </c>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+    </row>
+    <row r="42" spans="1:12" ht="60">
+      <c r="A42" s="197" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="177">
+        <v>1</v>
+      </c>
+      <c r="C42" s="194">
         <v>2</v>
       </c>
-      <c r="D42" s="204">
-        <v>1</v>
-      </c>
-      <c r="E42" s="200">
+      <c r="D42" s="198">
+        <v>1</v>
+      </c>
+      <c r="E42" s="194">
         <v>2</v>
       </c>
-      <c r="F42" s="215"/>
-      <c r="G42" s="200">
+      <c r="F42" s="208">
+        <v>1</v>
+      </c>
+      <c r="G42" s="194">
         <v>2</v>
       </c>
-      <c r="H42" s="179"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="203" t="s">
-        <v>136</v>
-      </c>
-      <c r="B43" s="180">
-        <v>1</v>
-      </c>
-      <c r="C43" s="200">
+      <c r="H42" s="176"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="197" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="177">
+        <v>1</v>
+      </c>
+      <c r="C43" s="194">
         <v>2</v>
       </c>
-      <c r="D43" s="204">
-        <v>1</v>
-      </c>
-      <c r="E43" s="200">
+      <c r="D43" s="198">
+        <v>1</v>
+      </c>
+      <c r="E43" s="194">
         <v>2</v>
       </c>
-      <c r="F43" s="215"/>
-      <c r="G43" s="200">
+      <c r="F43" s="208">
+        <v>1</v>
+      </c>
+      <c r="G43" s="194">
         <v>2</v>
       </c>
-      <c r="H43" s="179"/>
-      <c r="I43" s="179"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="203" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="180">
-        <v>1</v>
-      </c>
-      <c r="C44" s="200">
-        <v>3</v>
-      </c>
-      <c r="D44" s="204">
-        <v>1</v>
-      </c>
-      <c r="E44" s="200">
-        <v>3</v>
-      </c>
-      <c r="F44" s="215"/>
-      <c r="G44" s="200">
-        <v>3</v>
-      </c>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-    </row>
-    <row r="45" spans="1:11" ht="30">
-      <c r="A45" s="203" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="180">
-        <v>1</v>
-      </c>
-      <c r="C45" s="200">
-        <v>3</v>
-      </c>
-      <c r="D45" s="204">
-        <v>1</v>
-      </c>
-      <c r="E45" s="200">
-        <v>3</v>
-      </c>
-      <c r="F45" s="215"/>
-      <c r="G45" s="200">
-        <v>3</v>
-      </c>
-      <c r="H45" s="179"/>
-      <c r="I45" s="179"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="203" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="180">
-        <v>1</v>
-      </c>
-      <c r="C46" s="200">
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="197" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="177">
+        <v>1</v>
+      </c>
+      <c r="C44" s="194">
+        <v>3</v>
+      </c>
+      <c r="D44" s="198">
+        <v>1</v>
+      </c>
+      <c r="E44" s="194">
+        <v>3</v>
+      </c>
+      <c r="F44" s="208">
+        <v>1</v>
+      </c>
+      <c r="G44" s="194">
+        <v>3</v>
+      </c>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
+    </row>
+    <row r="45" spans="1:12" ht="30">
+      <c r="A45" s="197" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="177">
+        <v>1</v>
+      </c>
+      <c r="C45" s="194">
+        <v>3</v>
+      </c>
+      <c r="D45" s="198">
+        <v>1</v>
+      </c>
+      <c r="E45" s="194">
+        <v>3</v>
+      </c>
+      <c r="F45" s="208">
+        <v>1</v>
+      </c>
+      <c r="G45" s="194">
+        <v>3</v>
+      </c>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="197" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="177">
+        <v>1</v>
+      </c>
+      <c r="C46" s="194">
         <v>4</v>
       </c>
-      <c r="D46" s="204">
+      <c r="D46" s="198">
         <v>0.5</v>
       </c>
-      <c r="E46" s="200">
+      <c r="E46" s="194">
         <v>4</v>
       </c>
-      <c r="F46" s="215"/>
-      <c r="G46" s="200">
+      <c r="F46" s="208">
+        <v>1</v>
+      </c>
+      <c r="G46" s="194">
         <v>4</v>
       </c>
-      <c r="H46" s="179"/>
-      <c r="I46" s="179"/>
+      <c r="H46" s="176"/>
+      <c r="I46" s="176"/>
       <c r="K46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="60">
-      <c r="A47" s="206" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="207">
-        <v>1</v>
-      </c>
-      <c r="C47" s="181">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="45">
+      <c r="A47" s="200" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="201">
+        <v>1</v>
+      </c>
+      <c r="C47" s="178">
         <v>10</v>
       </c>
-      <c r="D47" s="204">
-        <v>1</v>
-      </c>
-      <c r="E47" s="181">
+      <c r="D47" s="198">
+        <v>1</v>
+      </c>
+      <c r="E47" s="178">
         <v>10</v>
       </c>
-      <c r="F47" s="215"/>
-      <c r="G47" s="181">
+      <c r="F47" s="208">
+        <v>0.6</v>
+      </c>
+      <c r="G47" s="178">
         <v>10</v>
       </c>
-      <c r="H47" s="179"/>
-      <c r="I47" s="179"/>
-    </row>
-    <row r="48" spans="1:11" ht="30">
-      <c r="A48" s="206" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="180">
+      <c r="H47" s="176"/>
+      <c r="I47" s="176"/>
+      <c r="L47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30">
+      <c r="A48" s="200" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="177">
         <v>0.5</v>
       </c>
-      <c r="C48" s="181">
+      <c r="C48" s="178">
         <v>6</v>
       </c>
-      <c r="D48" s="204">
-        <v>0</v>
-      </c>
-      <c r="E48" s="181">
+      <c r="D48" s="198">
+        <v>0</v>
+      </c>
+      <c r="E48" s="178">
         <v>6</v>
       </c>
-      <c r="F48" s="215"/>
-      <c r="G48" s="181">
+      <c r="F48" s="208">
+        <v>1</v>
+      </c>
+      <c r="G48" s="178">
         <v>6</v>
       </c>
-      <c r="H48" s="179"/>
-      <c r="I48" s="179"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
       <c r="J48" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K48" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="206" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="180">
-        <v>1</v>
-      </c>
-      <c r="C49" s="181">
-        <v>3</v>
-      </c>
-      <c r="D49" s="204">
-        <v>1</v>
-      </c>
-      <c r="E49" s="181">
-        <v>3</v>
-      </c>
-      <c r="F49" s="215"/>
-      <c r="G49" s="181">
-        <v>3</v>
-      </c>
-      <c r="H49" s="179"/>
-      <c r="I49" s="179"/>
+      <c r="A49" s="200" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="177">
+        <v>1</v>
+      </c>
+      <c r="C49" s="178">
+        <v>3</v>
+      </c>
+      <c r="D49" s="198">
+        <v>1</v>
+      </c>
+      <c r="E49" s="178">
+        <v>3</v>
+      </c>
+      <c r="F49" s="208">
+        <v>1</v>
+      </c>
+      <c r="G49" s="178">
+        <v>3</v>
+      </c>
+      <c r="H49" s="176"/>
+      <c r="I49" s="176"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="209" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="219">
+      <c r="A50" s="203" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="212">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
         <v>38</v>
       </c>
-      <c r="C50" s="189">
+      <c r="C50" s="186">
         <f>SUM(C39:C49)</f>
         <v>41</v>
       </c>
-      <c r="D50" s="220">
+      <c r="D50" s="213">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
         <v>33</v>
       </c>
-      <c r="E50" s="191">
+      <c r="E50" s="188">
         <f>SUM(E39:E49)</f>
         <v>41</v>
       </c>
-      <c r="F50" s="192">
+      <c r="F50" s="189">
         <f>SUMPRODUCT(F39:F49,G39:G49)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="193">
+        <v>37</v>
+      </c>
+      <c r="G50" s="190">
         <f>SUM(G39:G49)</f>
         <v>41</v>
       </c>
-      <c r="H50" s="198"/>
-      <c r="I50" s="179"/>
+      <c r="H50" s="176"/>
+      <c r="I50" s="176"/>
     </row>
     <row r="51" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="291" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="291"/>
-      <c r="C51" s="291"/>
-      <c r="D51" s="291"/>
-      <c r="E51" s="291"/>
-      <c r="F51" s="291"/>
-      <c r="G51" s="291"/>
-      <c r="H51" s="282" t="s">
-        <v>131</v>
-      </c>
-      <c r="I51" s="163"/>
+      <c r="A51" s="283" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="283"/>
+      <c r="C51" s="283"/>
+      <c r="D51" s="283"/>
+      <c r="E51" s="283"/>
+      <c r="F51" s="283"/>
+      <c r="G51" s="283"/>
+      <c r="H51" s="161" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" s="161"/>
     </row>
     <row r="52" spans="1:10" ht="30">
-      <c r="A52" s="221" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="213">
-        <v>1</v>
-      </c>
-      <c r="C52" s="222">
+      <c r="A52" s="214" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="206">
+        <v>1</v>
+      </c>
+      <c r="C52" s="215">
         <v>2</v>
       </c>
-      <c r="D52" s="223">
-        <v>1</v>
-      </c>
-      <c r="E52" s="222">
+      <c r="D52" s="216">
+        <v>1</v>
+      </c>
+      <c r="E52" s="215">
         <v>2</v>
       </c>
-      <c r="F52" s="217"/>
-      <c r="G52" s="222">
+      <c r="F52" s="210">
+        <v>1</v>
+      </c>
+      <c r="G52" s="215">
         <v>2</v>
       </c>
-      <c r="H52" s="198"/>
-      <c r="I52" s="179"/>
+      <c r="H52" s="176"/>
+      <c r="I52" s="176"/>
     </row>
     <row r="53" spans="1:10" ht="30">
-      <c r="A53" s="186" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53" s="224">
-        <v>1</v>
-      </c>
-      <c r="C53" s="181">
+      <c r="A53" s="183" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="217">
+        <v>1</v>
+      </c>
+      <c r="C53" s="178">
         <v>2</v>
       </c>
-      <c r="D53" s="225">
+      <c r="D53" s="218">
         <v>0.5</v>
       </c>
-      <c r="E53" s="181">
+      <c r="E53" s="178">
         <v>2</v>
       </c>
-      <c r="F53" s="215"/>
-      <c r="G53" s="181">
+      <c r="F53" s="208">
+        <v>1</v>
+      </c>
+      <c r="G53" s="178">
         <v>2</v>
       </c>
-      <c r="H53" s="179"/>
-      <c r="I53" s="179"/>
+      <c r="H53" s="176"/>
+      <c r="I53" s="176"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="186" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" s="226">
-        <v>0</v>
-      </c>
-      <c r="C54" s="181">
-        <v>1</v>
-      </c>
-      <c r="D54" s="204">
-        <v>1</v>
-      </c>
-      <c r="E54" s="181">
-        <v>1</v>
-      </c>
-      <c r="F54" s="218"/>
-      <c r="G54" s="181">
-        <v>1</v>
-      </c>
-      <c r="H54" s="179"/>
-      <c r="I54" s="179"/>
+      <c r="A54" s="183" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="219">
+        <v>0</v>
+      </c>
+      <c r="C54" s="178">
+        <v>1</v>
+      </c>
+      <c r="D54" s="198">
+        <v>1</v>
+      </c>
+      <c r="E54" s="178">
+        <v>1</v>
+      </c>
+      <c r="F54" s="211">
+        <v>1</v>
+      </c>
+      <c r="G54" s="178">
+        <v>1</v>
+      </c>
+      <c r="H54" s="176"/>
+      <c r="I54" s="176"/>
       <c r="J54" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="135">
-      <c r="A55" s="186" t="s">
-        <v>151</v>
-      </c>
-      <c r="B55" s="226">
-        <v>0</v>
-      </c>
-      <c r="C55" s="181">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="90">
+      <c r="A55" s="183" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="219">
+        <v>0</v>
+      </c>
+      <c r="C55" s="178">
         <v>4</v>
       </c>
-      <c r="D55" s="204">
-        <v>1</v>
-      </c>
-      <c r="E55" s="181">
+      <c r="D55" s="198">
+        <v>1</v>
+      </c>
+      <c r="E55" s="178">
         <v>4</v>
       </c>
-      <c r="F55" s="218"/>
-      <c r="G55" s="181">
+      <c r="F55" s="211">
+        <v>1</v>
+      </c>
+      <c r="G55" s="178">
         <v>4</v>
       </c>
-      <c r="H55" s="179"/>
-      <c r="I55" s="179"/>
+      <c r="H55" s="176"/>
+      <c r="I55" s="176"/>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45">
-      <c r="A56" s="185" t="s">
-        <v>153</v>
-      </c>
-      <c r="B56" s="207">
-        <v>1</v>
-      </c>
-      <c r="C56" s="200">
+      <c r="A56" s="182" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="201">
+        <v>1</v>
+      </c>
+      <c r="C56" s="194">
         <v>2</v>
       </c>
-      <c r="D56" s="284">
-        <v>1</v>
-      </c>
-      <c r="E56" s="200">
+      <c r="D56" s="275">
+        <v>1</v>
+      </c>
+      <c r="E56" s="194">
         <v>2</v>
       </c>
-      <c r="F56" s="227"/>
-      <c r="G56" s="200">
+      <c r="F56" s="277">
+        <v>1</v>
+      </c>
+      <c r="G56" s="194">
         <v>2</v>
       </c>
-      <c r="H56" s="228"/>
-      <c r="I56" s="179"/>
+      <c r="H56" s="220"/>
+      <c r="I56" s="176"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="229" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="188">
+      <c r="A57" s="221" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="185">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
         <v>6</v>
       </c>
-      <c r="C57" s="189">
+      <c r="C57" s="186">
         <f>SUM(C52:C56)</f>
         <v>11</v>
       </c>
-      <c r="D57" s="190">
+      <c r="D57" s="187">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
         <v>10</v>
       </c>
-      <c r="E57" s="191">
+      <c r="E57" s="188">
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="230">
+      <c r="F57" s="222">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="231">
+        <v>11</v>
+      </c>
+      <c r="G57" s="223">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
-      <c r="H57" s="179"/>
-      <c r="I57" s="179"/>
+      <c r="H57" s="176"/>
+      <c r="I57" s="176"/>
     </row>
     <row r="58" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A58" s="291" t="s">
+      <c r="A58" s="283" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="291"/>
-      <c r="C58" s="291"/>
-      <c r="D58" s="291"/>
-      <c r="E58" s="291"/>
-      <c r="F58" s="291"/>
-      <c r="G58" s="291"/>
-      <c r="H58" s="163"/>
-      <c r="I58" s="163"/>
+      <c r="B58" s="283"/>
+      <c r="C58" s="283"/>
+      <c r="D58" s="283"/>
+      <c r="E58" s="283"/>
+      <c r="F58" s="283"/>
+      <c r="G58" s="283"/>
+      <c r="H58" s="161"/>
+      <c r="I58" s="161"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="232" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="233">
+      <c r="A59" s="224" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="225">
         <f t="shared" ref="B59:G59" si="0">B13+B20+B25+B31+B37+B50+B57</f>
         <v>77</v>
       </c>
-      <c r="C59" s="195">
+      <c r="C59" s="191">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D59" s="234">
+      <c r="D59" s="226">
         <f t="shared" si="0"/>
         <v>66.75</v>
       </c>
-      <c r="E59" s="235">
+      <c r="E59" s="227">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F59" s="236">
+      <c r="F59" s="228">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="237">
+        <v>89.75</v>
+      </c>
+      <c r="G59" s="229">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H59" s="228"/>
-      <c r="I59" s="179"/>
+      <c r="H59" s="220"/>
+      <c r="I59" s="176"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="232" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" s="292">
+      <c r="A60" s="224" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="284">
         <f>B59/C59</f>
         <v>0.77</v>
       </c>
-      <c r="C60" s="292"/>
-      <c r="D60" s="293">
+      <c r="C60" s="284"/>
+      <c r="D60" s="285">
         <f>D59/E59</f>
         <v>0.66749999999999998</v>
       </c>
-      <c r="E60" s="293"/>
-      <c r="F60" s="294">
+      <c r="E60" s="285"/>
+      <c r="F60" s="286">
         <f>F59/G59</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="294"/>
-      <c r="H60" s="238"/>
-      <c r="I60" s="238"/>
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="G60" s="286"/>
+      <c r="H60" s="230"/>
+      <c r="I60" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -7300,8 +7384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7314,898 +7398,953 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="297" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="239"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="231"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="305" t="s">
+      <c r="A3" s="297" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
     </row>
     <row r="5" spans="1:7" ht="23.25">
-      <c r="A5" s="306" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="306"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
+      <c r="A5" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="240" t="s">
+      <c r="A6" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="307"/>
-      <c r="C6" s="307"/>
-      <c r="D6" s="307"/>
-      <c r="E6" s="307"/>
-      <c r="F6" s="307"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="241" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="242" t="s">
+      <c r="A7" s="233" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="242" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="242" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="242" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="243" t="s">
+      <c r="C7" s="234" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="234" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="234" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="235" t="s">
         <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="244" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="245">
+      <c r="A8" s="236" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="237">
         <f>12/21</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="C8" s="245">
-        <v>1</v>
-      </c>
-      <c r="D8" s="245">
+      <c r="C8" s="237">
+        <v>1</v>
+      </c>
+      <c r="D8" s="237">
         <v>16</v>
       </c>
-      <c r="E8" s="245">
+      <c r="E8" s="237">
         <f t="shared" ref="E8:E17" si="0">B8*C8*D8</f>
         <v>9.1428571428571423</v>
       </c>
-      <c r="F8" s="246" t="s">
-        <v>160</v>
+      <c r="F8" s="238" t="s">
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="244" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="245">
-        <v>1</v>
-      </c>
-      <c r="C9" s="245">
-        <v>1</v>
-      </c>
-      <c r="D9" s="245">
+      <c r="A9" s="236" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="237">
+        <v>1</v>
+      </c>
+      <c r="C9" s="237">
+        <v>1</v>
+      </c>
+      <c r="D9" s="237">
         <v>8</v>
       </c>
-      <c r="E9" s="245">
+      <c r="E9" s="237">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="247"/>
+      <c r="F9" s="239"/>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="244" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="245">
+      <c r="A10" s="236" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="237">
         <f>8/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="C10" s="245">
-        <v>1</v>
-      </c>
-      <c r="D10" s="245">
+      <c r="C10" s="237">
+        <v>1</v>
+      </c>
+      <c r="D10" s="237">
         <v>14</v>
       </c>
-      <c r="E10" s="245">
+      <c r="E10" s="237">
         <f t="shared" si="0"/>
         <v>12.444444444444443</v>
       </c>
-      <c r="F10" s="247" t="s">
+      <c r="F10" s="239" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" t="s">
         <v>163</v>
       </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="244" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="245">
+      <c r="A11" s="236" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="237">
         <f>11/13</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="C11" s="245">
-        <v>1</v>
-      </c>
-      <c r="D11" s="245">
+      <c r="C11" s="237">
+        <v>1</v>
+      </c>
+      <c r="D11" s="237">
         <v>12</v>
       </c>
-      <c r="E11" s="245">
+      <c r="E11" s="237">
         <f t="shared" si="0"/>
         <v>10.153846153846153</v>
       </c>
-      <c r="F11" s="247" t="s">
-        <v>165</v>
+      <c r="F11" s="239" t="s">
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="244" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="245">
+      <c r="A12" s="236" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="237">
         <f>5/7</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="C12" s="245">
-        <v>1</v>
-      </c>
-      <c r="D12" s="245">
+      <c r="C12" s="237">
+        <v>1</v>
+      </c>
+      <c r="D12" s="237">
         <v>8</v>
       </c>
-      <c r="E12" s="245">
+      <c r="E12" s="237">
         <f t="shared" si="0"/>
         <v>5.7142857142857144</v>
       </c>
-      <c r="F12" s="246" t="s">
-        <v>167</v>
+      <c r="F12" s="238" t="s">
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="244" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="245">
+      <c r="A13" s="236" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="237">
         <f>8/10</f>
         <v>0.8</v>
       </c>
-      <c r="C13" s="245">
-        <v>1</v>
-      </c>
-      <c r="D13" s="245">
+      <c r="C13" s="237">
+        <v>1</v>
+      </c>
+      <c r="D13" s="237">
         <v>10</v>
       </c>
-      <c r="E13" s="245">
+      <c r="E13" s="237">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="246" t="s">
-        <v>169</v>
+      <c r="F13" s="238" t="s">
+        <v>177</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="244" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="245">
+      <c r="A14" s="236" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="237">
         <f>14/17</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="C14" s="245">
-        <v>1</v>
-      </c>
-      <c r="D14" s="245">
+      <c r="C14" s="237">
+        <v>1</v>
+      </c>
+      <c r="D14" s="237">
         <v>10</v>
       </c>
-      <c r="E14" s="245">
+      <c r="E14" s="237">
         <f t="shared" si="0"/>
         <v>8.235294117647058</v>
       </c>
-      <c r="F14" s="246" t="s">
-        <v>171</v>
+      <c r="F14" s="238" t="s">
+        <v>179</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="244" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="245">
+      <c r="A15" s="236" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="237">
         <f>15/15</f>
         <v>1</v>
       </c>
-      <c r="C15" s="245">
-        <v>1</v>
-      </c>
-      <c r="D15" s="245">
+      <c r="C15" s="237">
+        <v>1</v>
+      </c>
+      <c r="D15" s="237">
         <v>8</v>
       </c>
-      <c r="E15" s="245">
+      <c r="E15" s="237">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F15" s="246"/>
+      <c r="F15" s="238"/>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="244" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="245">
+      <c r="A16" s="236" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="237">
         <f>15/15</f>
         <v>1</v>
       </c>
-      <c r="C16" s="245">
-        <v>1</v>
-      </c>
-      <c r="D16" s="245">
+      <c r="C16" s="237">
+        <v>1</v>
+      </c>
+      <c r="D16" s="237">
         <v>8</v>
       </c>
-      <c r="E16" s="245">
+      <c r="E16" s="237">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F16" s="246"/>
+      <c r="F16" s="238"/>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="244" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="245">
+      <c r="A17" s="236" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="237">
         <f>9/10</f>
         <v>0.9</v>
       </c>
-      <c r="C17" s="245">
-        <v>1</v>
-      </c>
-      <c r="D17" s="245">
+      <c r="C17" s="237">
+        <v>1</v>
+      </c>
+      <c r="D17" s="237">
         <v>6</v>
       </c>
-      <c r="E17" s="245">
+      <c r="E17" s="237">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="F17" s="247" t="s">
-        <v>175</v>
+      <c r="F17" s="239" t="s">
+        <v>183</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="248" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" s="308"/>
-      <c r="C18" s="308"/>
-      <c r="D18" s="285">
+      <c r="A18" s="240" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="300"/>
+      <c r="C18" s="300"/>
+      <c r="D18" s="276">
         <f>SUM(D8:D17)</f>
         <v>100</v>
       </c>
-      <c r="E18" s="249">
+      <c r="E18" s="241">
         <f>SUM(E8:E17)/D18 - E20*D20 - E19*D19</f>
         <v>0.83090727573080525</v>
       </c>
-      <c r="F18" s="250"/>
+      <c r="F18" s="242"/>
       <c r="G18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="243" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="244">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="243" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="244">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A21" s="293" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="293"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="251" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="252">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="251" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="252">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A21" s="301" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
-      <c r="G21" t="s">
-        <v>179</v>
-      </c>
-    </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="253" t="s">
+      <c r="A22" s="245" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="302"/>
-      <c r="C22" s="302"/>
-      <c r="D22" s="302"/>
-      <c r="E22" s="302"/>
-      <c r="F22" s="302"/>
+      <c r="B22" s="294"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="294"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="253" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="253" t="s">
+      <c r="A23" s="245" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="253" t="s">
-        <v>157</v>
-      </c>
-      <c r="D23" s="253" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="253" t="s">
-        <v>158</v>
-      </c>
-      <c r="F23" s="254" t="s">
+      <c r="C23" s="245" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="245" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="245" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="246" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A24" s="253" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="255">
+      <c r="A24" s="245" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="247">
         <v>0.8</v>
       </c>
-      <c r="C24" s="255">
-        <v>1</v>
-      </c>
-      <c r="D24" s="253">
+      <c r="C24" s="247">
+        <v>1</v>
+      </c>
+      <c r="D24" s="245">
         <v>8</v>
       </c>
-      <c r="E24" s="253">
+      <c r="E24" s="245">
         <f t="shared" ref="E24:E34" si="1">B24*C24*D24</f>
         <v>6.4</v>
       </c>
-      <c r="F24" s="254" t="s">
-        <v>181</v>
+      <c r="F24" s="246" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30">
-      <c r="A25" s="253" t="s">
-        <v>182</v>
-      </c>
-      <c r="B25" s="255">
+      <c r="A25" s="245" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="247">
+        <v>0.8</v>
+      </c>
+      <c r="C25" s="247">
+        <v>1</v>
+      </c>
+      <c r="D25" s="245">
+        <v>16</v>
+      </c>
+      <c r="E25" s="245">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+      <c r="F25" s="246" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="245" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="247">
         <v>0.7</v>
       </c>
-      <c r="C25" s="255">
-        <v>1</v>
-      </c>
-      <c r="D25" s="253">
-        <v>16</v>
-      </c>
-      <c r="E25" s="253">
-        <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="F25" s="254" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45">
-      <c r="A26" s="253" t="s">
-        <v>184</v>
-      </c>
-      <c r="B26" s="255">
-        <v>0.7</v>
-      </c>
-      <c r="C26" s="255">
-        <v>1</v>
-      </c>
-      <c r="D26" s="253">
+      <c r="C26" s="247">
+        <v>1</v>
+      </c>
+      <c r="D26" s="245">
         <v>8</v>
       </c>
-      <c r="E26" s="253">
+      <c r="E26" s="245">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="F26" s="254" t="s">
-        <v>185</v>
+      <c r="F26" s="246" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="253" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="255">
+      <c r="A27" s="245" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="247">
         <v>0.9</v>
       </c>
-      <c r="C27" s="255">
-        <v>1</v>
-      </c>
-      <c r="D27" s="253">
+      <c r="C27" s="247">
+        <v>1</v>
+      </c>
+      <c r="D27" s="245">
         <v>6</v>
       </c>
-      <c r="E27" s="253">
+      <c r="E27" s="245">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
-      <c r="F27" s="254" t="s">
-        <v>187</v>
+      <c r="F27" s="246" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
-      <c r="A28" s="253" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="255">
+      <c r="A28" s="245" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="247">
         <v>0.8</v>
       </c>
-      <c r="C28" s="255">
-        <v>1</v>
-      </c>
-      <c r="D28" s="253">
+      <c r="C28" s="247">
+        <v>1</v>
+      </c>
+      <c r="D28" s="245">
         <v>8</v>
       </c>
-      <c r="E28" s="253">
+      <c r="E28" s="245">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-      <c r="F28" s="254" t="s">
-        <v>189</v>
+      <c r="F28" s="246" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45">
-      <c r="A29" s="253" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="255">
+      <c r="A29" s="245" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="247">
         <v>0.7</v>
       </c>
-      <c r="C29" s="255">
-        <v>1</v>
-      </c>
-      <c r="D29" s="253">
+      <c r="C29" s="247">
+        <v>1</v>
+      </c>
+      <c r="D29" s="245">
         <v>10</v>
       </c>
-      <c r="E29" s="253">
+      <c r="E29" s="245">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F29" s="254" t="s">
-        <v>191</v>
+      <c r="F29" s="246" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30">
-      <c r="A30" s="253" t="s">
-        <v>192</v>
-      </c>
-      <c r="B30" s="255">
+      <c r="A30" s="245" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="247">
         <v>0.7</v>
       </c>
-      <c r="C30" s="255">
-        <v>1</v>
-      </c>
-      <c r="D30" s="253">
+      <c r="C30" s="247">
+        <v>1</v>
+      </c>
+      <c r="D30" s="245">
         <v>8</v>
       </c>
-      <c r="E30" s="253">
+      <c r="E30" s="245">
         <f t="shared" si="1"/>
         <v>5.6</v>
       </c>
-      <c r="F30" s="254" t="s">
-        <v>193</v>
+      <c r="F30" s="246" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="253" t="s">
-        <v>194</v>
-      </c>
-      <c r="B31" s="255">
-        <v>1</v>
-      </c>
-      <c r="C31" s="255">
-        <v>1</v>
-      </c>
-      <c r="D31" s="253">
+      <c r="A31" s="245" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="247">
+        <v>1</v>
+      </c>
+      <c r="C31" s="247">
+        <v>1</v>
+      </c>
+      <c r="D31" s="245">
         <v>8</v>
       </c>
-      <c r="E31" s="253">
+      <c r="E31" s="245">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F31" s="254"/>
+      <c r="F31" s="246"/>
     </row>
     <row r="32" spans="1:7" ht="45">
-      <c r="A32" s="253" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="255">
-        <v>0.6</v>
-      </c>
-      <c r="C32" s="255">
-        <v>1</v>
-      </c>
-      <c r="D32" s="253">
+      <c r="A32" s="245" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="247">
+        <v>0.7</v>
+      </c>
+      <c r="C32" s="247">
+        <v>1</v>
+      </c>
+      <c r="D32" s="245">
         <v>8</v>
       </c>
-      <c r="E32" s="253">
+      <c r="E32" s="245">
         <f t="shared" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="F32" s="254" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="253" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="255">
-        <v>1</v>
-      </c>
-      <c r="C33" s="255">
-        <v>1</v>
-      </c>
-      <c r="D33" s="253">
+        <v>5.6</v>
+      </c>
+      <c r="F32" s="246" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="245" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="247">
+        <v>1</v>
+      </c>
+      <c r="C33" s="247">
+        <v>1</v>
+      </c>
+      <c r="D33" s="245">
         <v>8</v>
       </c>
-      <c r="E33" s="253">
+      <c r="E33" s="245">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F33" s="254"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="253" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" s="255">
-        <v>0.8</v>
-      </c>
-      <c r="C34" s="255">
-        <v>1</v>
-      </c>
-      <c r="D34" s="253">
+      <c r="F33" s="246"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="245" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="247">
+        <v>0.9</v>
+      </c>
+      <c r="C34" s="247">
+        <v>1</v>
+      </c>
+      <c r="D34" s="245">
         <v>12</v>
       </c>
-      <c r="E34" s="253">
+      <c r="E34" s="245">
         <f t="shared" si="1"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="F34" s="254" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="256" t="s">
-        <v>176</v>
-      </c>
-      <c r="B35" s="256"/>
-      <c r="C35" s="257"/>
-      <c r="D35" s="257">
+        <v>10.8</v>
+      </c>
+      <c r="F34" s="246" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="248" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="248"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="249">
         <f>SUM(D24:D34)</f>
         <v>100</v>
       </c>
-      <c r="E35" s="258">
+      <c r="E35" s="250">
         <f>SUM(E24:E34)/D35 -E36*D36 -E37*D37-E38*D38</f>
-        <v>0.78</v>
-      </c>
-      <c r="F35" s="259"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="260" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="261"/>
-      <c r="D36" s="262">
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="F35" s="251"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="252" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="253"/>
+      <c r="D36" s="254">
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="260" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="263">
+    <row r="37" spans="1:7">
+      <c r="A37" s="252" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="255">
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="260" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="264">
+    <row r="38" spans="1:7">
+      <c r="A38" s="252" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="256">
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="23.25">
-      <c r="A39" s="303" t="s">
+    <row r="39" spans="1:7" ht="23.25">
+      <c r="A39" s="295" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="303"/>
-      <c r="C39" s="303"/>
-      <c r="D39" s="303"/>
-      <c r="E39" s="303"/>
-      <c r="F39" s="303"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="265" t="s">
+      <c r="B39" s="295"/>
+      <c r="C39" s="295"/>
+      <c r="D39" s="295"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="304"/>
-      <c r="C40" s="304"/>
-      <c r="D40" s="304"/>
-      <c r="E40" s="304"/>
-      <c r="F40" s="304"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="266" t="s">
-        <v>156</v>
-      </c>
-      <c r="B41" s="267" t="s">
+      <c r="B40" s="296"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
+      <c r="E40" s="296"/>
+      <c r="F40" s="296"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="258" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="259" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="267" t="s">
-        <v>157</v>
-      </c>
-      <c r="D41" s="267" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="267" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="268" t="s">
+      <c r="C41" s="259" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="259" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="259" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="260" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="269" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" s="270"/>
-      <c r="C42" s="270"/>
-      <c r="D42" s="270">
+    <row r="42" spans="1:7">
+      <c r="A42" s="261" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="262">
+        <v>0.9</v>
+      </c>
+      <c r="C42" s="262">
+        <v>1</v>
+      </c>
+      <c r="D42" s="262">
         <v>12</v>
       </c>
-      <c r="E42" s="270">
+      <c r="E42" s="262">
         <f t="shared" ref="E42:E51" si="2">B42*C42*D42</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="268"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="269" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="270"/>
-      <c r="C43" s="270"/>
-      <c r="D43" s="270">
+        <v>10.8</v>
+      </c>
+      <c r="F42" s="260" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="261" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="262">
+        <v>1</v>
+      </c>
+      <c r="C43" s="262">
+        <v>1</v>
+      </c>
+      <c r="D43" s="262">
         <v>16</v>
       </c>
-      <c r="E43" s="270">
+      <c r="E43" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="268"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="269" t="s">
-        <v>203</v>
-      </c>
-      <c r="B44" s="270"/>
-      <c r="C44" s="270"/>
-      <c r="D44" s="270">
+        <v>16</v>
+      </c>
+      <c r="F43" s="260"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="261" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="262">
+        <v>0.95</v>
+      </c>
+      <c r="C44" s="262">
+        <v>1</v>
+      </c>
+      <c r="D44" s="262">
         <v>8</v>
       </c>
-      <c r="E44" s="270">
+      <c r="E44" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="271"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="269" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" s="270"/>
-      <c r="C45" s="270"/>
-      <c r="D45" s="270">
+        <v>7.6</v>
+      </c>
+      <c r="F44" s="263" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="261" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="262">
+        <v>0.84</v>
+      </c>
+      <c r="C45" s="262">
+        <v>1</v>
+      </c>
+      <c r="D45" s="262">
         <v>12</v>
       </c>
-      <c r="E45" s="270">
+      <c r="E45" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="268"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="269" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="270"/>
-      <c r="C46" s="270"/>
-      <c r="D46" s="270">
+        <v>10.08</v>
+      </c>
+      <c r="F45" s="260" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="261" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="262">
+        <v>1</v>
+      </c>
+      <c r="C46" s="262">
+        <v>1</v>
+      </c>
+      <c r="D46" s="262">
         <v>10</v>
       </c>
-      <c r="E46" s="270">
+      <c r="E46" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="268"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="269" t="s">
-        <v>206</v>
-      </c>
-      <c r="B47" s="270"/>
-      <c r="C47" s="270"/>
-      <c r="D47" s="270">
+        <v>10</v>
+      </c>
+      <c r="F46" s="260" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="261" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="262">
+        <v>0.85</v>
+      </c>
+      <c r="C47" s="262">
+        <v>1</v>
+      </c>
+      <c r="D47" s="262">
         <v>14</v>
       </c>
-      <c r="E47" s="270">
+      <c r="E47" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="268"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="272" t="s">
-        <v>207</v>
-      </c>
-      <c r="B48" s="270"/>
-      <c r="C48" s="270"/>
-      <c r="D48" s="273">
+        <v>11.9</v>
+      </c>
+      <c r="F47" s="260" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="264" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="262">
+        <v>1</v>
+      </c>
+      <c r="C48" s="262">
+        <v>1</v>
+      </c>
+      <c r="D48" s="265">
         <v>6</v>
       </c>
-      <c r="E48" s="270">
+      <c r="E48" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="274"/>
+        <v>6</v>
+      </c>
+      <c r="F48" s="266"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="272" t="s">
-        <v>208</v>
-      </c>
-      <c r="B49" s="270"/>
-      <c r="C49" s="270"/>
-      <c r="D49" s="273">
+      <c r="A49" s="264" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="262">
+        <v>1</v>
+      </c>
+      <c r="C49" s="262">
+        <v>1</v>
+      </c>
+      <c r="D49" s="265">
         <v>8</v>
       </c>
-      <c r="E49" s="270">
+      <c r="E49" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="274"/>
+        <v>8</v>
+      </c>
+      <c r="F49" s="266"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="272" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="270"/>
-      <c r="C50" s="270"/>
-      <c r="D50" s="273">
+      <c r="A50" s="264" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="262">
+        <v>0.97</v>
+      </c>
+      <c r="C50" s="262">
+        <v>1</v>
+      </c>
+      <c r="D50" s="265">
         <v>6</v>
       </c>
-      <c r="E50" s="270">
+      <c r="E50" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="274"/>
+        <v>5.82</v>
+      </c>
+      <c r="F50" s="266" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="272" t="s">
-        <v>210</v>
-      </c>
-      <c r="B51" s="270"/>
-      <c r="C51" s="270"/>
-      <c r="D51" s="273">
+      <c r="A51" s="264" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="262">
+        <v>1</v>
+      </c>
+      <c r="C51" s="262">
+        <v>1</v>
+      </c>
+      <c r="D51" s="265">
         <v>8</v>
       </c>
-      <c r="E51" s="270">
+      <c r="E51" s="262">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="274"/>
+        <v>8</v>
+      </c>
+      <c r="F51" s="266"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="275" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="276"/>
-      <c r="C52" s="276"/>
-      <c r="D52" s="277">
+      <c r="A52" s="267" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="268"/>
+      <c r="C52" s="268"/>
+      <c r="D52" s="269">
         <f>SUM(D42:D51)</f>
         <v>100</v>
       </c>
-      <c r="E52" s="278">
+      <c r="E52" s="270">
         <f>SUM(E42:E51)/D52 - D53*E53  - D54*E54 - D55*E55</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="279"/>
+        <v>0.94199999999999984</v>
+      </c>
+      <c r="F52" s="271"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="280" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="263">
+      <c r="A53" s="272" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="255">
         <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="280" t="s">
-        <v>178</v>
-      </c>
-      <c r="D54" s="263">
+      <c r="A54" s="272" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="255">
         <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="281" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="264">
+      <c r="A55" s="273" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="256">
         <v>0.05</v>
       </c>
     </row>
@@ -8226,7 +8365,7 @@
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42:C51 C19 C8:C17" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C17 C19 C42:C51" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>"0,0.25,0.50,0.75,1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8275,7 +8414,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="289" t="s">
+      <c r="G2" s="281" t="s">
         <v>3</v>
       </c>
     </row>
@@ -8288,11 +8427,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="289"/>
+      <c r="G3" s="281"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -8318,7 +8457,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -8331,7 +8470,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="65" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -8344,7 +8483,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -8357,7 +8496,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="65" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -8370,7 +8509,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -8383,7 +8522,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -8396,7 +8535,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="65" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -8409,7 +8548,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -8422,7 +8561,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="65" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -8435,7 +8574,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="65" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -8448,7 +8587,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="65" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8461,7 +8600,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="65" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -8474,7 +8613,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -8487,7 +8626,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="65" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -8500,7 +8639,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="65" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -8513,7 +8652,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -8526,7 +8665,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="65" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -8539,7 +8678,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -8552,7 +8691,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="65" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -8565,7 +8704,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="65" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -8578,7 +8717,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -8591,7 +8730,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -8626,7 +8765,6 @@
         <f>SUMPRODUCT(F$4:F$27,$G$4:$G$27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="162"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="85" t="s">
@@ -8652,7 +8790,6 @@
         <f>SUMPRODUCT(--ISNUMBER(F$4:F$27),$G$4:$G$27)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="162"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="91" t="s">
@@ -8683,15 +8820,10 @@
       <c r="A33" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
-      <c r="F33" s="162"/>
-      <c r="H33" s="290" t="s">
+      <c r="H33" s="282" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="290"/>
+      <c r="I33" s="282"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
@@ -8894,24 +9026,16 @@
         <f>IF(F$34="Oui",$H$43,$I$43)</f>
         <v>10</v>
       </c>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="137"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="162"/>
-      <c r="B46" s="162"/>
-      <c r="C46" s="162"/>
-      <c r="D46" s="162"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="162"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="91" t="s">
@@ -8940,9 +9064,9 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="B50" s="138">
+        <v>247</v>
+      </c>
+      <c r="B50" s="137">
         <f>(B$31+B$47)/2</f>
         <v>0.5</v>
       </c>
@@ -8967,23 +9091,23 @@
       <c r="A51" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="139">
+      <c r="B51" s="138">
         <f>COUNTA(B$4:B$27)</f>
         <v>0</v>
       </c>
-      <c r="C51" s="140">
+      <c r="C51" s="139">
         <f>COUNTA(C$4:C$27)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="141">
+      <c r="D51" s="140">
         <f>COUNTA(D$4:D$27)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="142">
+      <c r="E51" s="141">
         <f>COUNTA(E$4:E$27)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="143">
+      <c r="F51" s="142">
         <f>COUNTA(F$4:F$27)</f>
         <v>0</v>
       </c>
